--- a/02_MasterWifoMannheim/03_Courses/Course86.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course86.xlsx
@@ -1,37 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3005A715B7A3B1159D1F8F443EFFFF8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1CCEF62-D97E-4261-8EC9-6939D212D354}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>FIN 686 Topics in Sustainable Finance</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>This course provides an in-depth look into selected topics in sustainable finance. The course will be offered in three blocked all-day sessions. The first two sessions will provide an overview of recent academic approaches to thinking about sustainable finance, as well as an introduction to the market for, ecosystem of, and central themes concerning sustainable finance. A core focus of this course will be on sustainable finance issues from the perspective a graded group assignment that provides the opportunity to translate the knowledge acquired in the first two sessions into practice by analysing sustainable investment projects and by structuring a (hypothetical) fund that can be marketed to institutional investors. Groups will present and discuss their results in the final session.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>fter completing this course, students will have a thorough understanding of some of the key features of sustainable finance from an institutional investor perspective and in particular, impact investing. sustainable investment opportunities and to set up sustainable investment funds. will have analyzed, prepared a report on, and presented results on a (hypothetical) impact investment fund including some of the aspects of fund documentation.</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>and Insurance (FIN)</t>
+  </si>
+  <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>Obligatory registration</t>
+  </si>
+  <si>
+    <t>Further Information on registration:Website of the Chair / “Student Portal” Class size: max. 25 students</t>
+  </si>
+  <si>
+    <t>Courses Hours per week Self-study Lectures 2 10</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>70% write up and presentation of group assignment, 30% class participation</t>
+  </si>
+  <si>
+    <t>Preliminary course work</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Martin Ewald, Prof Dr. Oliver Spalt</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
+  </si>
+  <si>
+    <t>FIN 5|</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +151,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,217 +475,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>FIN 686 Topics in Sustainable Finance</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>This course provides an in-depth look into selected topics in sustainable finance. The course will be offered in three blocked all-day sessions. The first two sessions will provide an overview of recent academic approaches to thinking about sustainable finance, as well as an introduction to the market for, ecosystem of, and central themes concerning sustainable finance. A core focus of this course will be on sustainable finance issues from the perspective a graded group assignment that provides the opportunity to translate the knowledge acquired in the first two sessions into practice by analysing sustainable investment projects and by structuring a (hypothetical) fund that can be marketed to institutional investors. Groups will present and discuss their results in the final session.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>fter completing this course, students will have a thorough understanding of some of the key features of sustainable finance from an institutional investor perspective and in particular, impact investing. sustainable investment opportunities and to set up sustainable investment funds. will have analyzed, prepared a report on, and presented results on a (hypothetical) impact investment fund including some of the aspects of fund documentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>and Insurance (FIN)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Benötigte Kurse</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>FIN 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Obligatory registration</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Further Information on registration:Website of the Chair / “Student Portal” Class size: max. 25 students</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Courses Hours per week Self-study Lectures 2 10</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>70% write up and presentation of group assignment, 30% class participation</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Preliminary course work</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Martin Ewald, Prof Dr. Oliver Spalt</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1 semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SSS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
